--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2089136.23917828</v>
+        <v>2213248.730551649</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5166809.101428614</v>
+        <v>5645683.044057328</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,7 +670,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0950307814642</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>98.93871561313649</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -820,19 +822,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -871,19 +873,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>222.4321437257054</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>125.1716544454842</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -908,13 +910,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>17.46814234098522</v>
       </c>
       <c r="Y5" t="n">
-        <v>147.7095379499228</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>81.39927475435188</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>120.4898091149247</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1145,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>32.36127543482676</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>173.5276703207737</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1300,10 +1302,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1339,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>135.4170480006339</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>191.9089456912525</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>297.5333222040714</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1433,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>65.07405371603568</v>
+        <v>243.9266518127007</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1607,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>73.98691698369836</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864835</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>240.4911776300926</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2008,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117707</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>7.264602967362117</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.428945792082</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2135,10 +2137,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2239,16 +2241,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>46.47710458853147</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117669</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830732</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2476,16 +2478,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>122.9229677259524</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2527,10 +2529,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>131.9969996527466</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2722,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>35.5167825707944</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2770,13 +2772,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>30.80549757377439</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S31" t="n">
-        <v>130.6556207749486</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.25041423584345</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>82.14201637551361</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>35.20092700998597</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3487,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3661,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>28.46824604904392</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3724,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>26.70160847752048</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>186.7520388614008</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>2.008513159455277</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3979,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>236.7304071971283</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4034,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>172.6623007436913</v>
+        <v>123.2901323038659</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1011.477214236518</v>
+        <v>443.0234284442651</v>
       </c>
       <c r="C2" t="n">
-        <v>573.3347414199409</v>
+        <v>408.9213596680925</v>
       </c>
       <c r="D2" t="n">
-        <v>541.4653606347895</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>511.7310198334887</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>1810.336013065103</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>1810.336013065103</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>2123.562040472833</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>2123.562040472833</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>2123.562040472833</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.526232558367</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.526232558367</v>
       </c>
       <c r="W2" t="n">
-        <v>2265.205371842461</v>
+        <v>1292.711182009805</v>
       </c>
       <c r="X2" t="n">
-        <v>1846.062908421772</v>
+        <v>1277.609122629519</v>
       </c>
       <c r="Y2" t="n">
-        <v>1437.776784721425</v>
+        <v>869.3229989291729</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>404.0232146552985</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>404.0232146552985</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>404.0232146552985</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>404.0232146552985</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>404.0232146552985</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>295.1653293437081</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>122.603617826933</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1045.965860605973</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>759.0103524764037</v>
       </c>
       <c r="W4" t="n">
-        <v>1551.697666545389</v>
+        <v>486.9839480626952</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>486.9839480626952</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>486.9839480626952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2078.642592532902</v>
+        <v>2072.614400557222</v>
       </c>
       <c r="C5" t="n">
-        <v>1640.500119716325</v>
+        <v>1634.471927740645</v>
       </c>
       <c r="D5" t="n">
-        <v>1204.590334890769</v>
+        <v>1602.602546955494</v>
       </c>
       <c r="E5" t="n">
-        <v>770.8155900490646</v>
+        <v>1168.827802113789</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9481604582723</v>
+        <v>740.960372522997</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>339.5625411462608</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="L5" t="n">
-        <v>687.540662806093</v>
+        <v>674.5331706342555</v>
       </c>
       <c r="M5" t="n">
-        <v>687.540662806093</v>
+        <v>1104.263696631239</v>
       </c>
       <c r="N5" t="n">
-        <v>1348.380717347871</v>
+        <v>1728.364480676017</v>
       </c>
       <c r="O5" t="n">
-        <v>2009.22077188965</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="P5" t="n">
-        <v>2670.060826431428</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>2116.763874884886</v>
       </c>
       <c r="X5" t="n">
-        <v>2654.14371650258</v>
+        <v>2099.119286661668</v>
       </c>
       <c r="Y5" t="n">
-        <v>2504.942163017809</v>
+        <v>2094.873567001726</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>1364.551312986336</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>1258.094851822979</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>1163.004562969532</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>1068.884148296486</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>985.5003099126473</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>900.1152201788311</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>858.3795679950435</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>884.443241155501</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>1209.001566121713</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1239.606828702659</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1239.606828702659</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1239.606828702659</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1239.606828702659</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1239.606828702659</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1863.707612747437</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>2404.446551379513</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>2458.163891922236</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>2327.985248252837</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>2151.648701252805</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1952.531183314805</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>1767.208429047999</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>1612.340993286879</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>1485.8552140661</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>1071.809862542593</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>899.2481510258184</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>733.3701582273411</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>563.6121544780783</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>386.9051004398345</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>221.3138254656622</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1143.991608255752</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413397</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>2389.112579835562</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>2110.679579088667</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1823.724070959097</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="W7" t="n">
-        <v>1551.697666545389</v>
+        <v>1544.621287895073</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1299.229533228485</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1071.809862542593</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1819.558022317326</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>1785.455953541153</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>1349.546168715597</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>915.7714238738924</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>487.9039942831002</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>86.50616290636407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4805,22 +4807,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1810.336013065103</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>2471.176067606882</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>2471.176067606882</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>2471.176067606882</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2471.176067606882</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
         <v>2500.906761678371</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2494.780351359939</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2235.558048676956</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2235.558048676956</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>2234.742998128393</v>
       </c>
       <c r="X8" t="n">
-        <v>2654.14371650258</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.857592802233</v>
+        <v>1811.354815047762</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.7523231022661</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>783.1906115854911</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>617.3126187870138</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>447.554615037751</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2511.858108166463</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2265.978661744918</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1987.545660998023</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1700.590152868454</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1428.563748454745</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1183.171993788158</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.7523231022661</v>
+        <v>966.8681021663376</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1619.705114763053</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1619.705114763053</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1319.166405466011</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>885.391660624306</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>457.5242310335138</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677765</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096956</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L11" t="n">
-        <v>1185.945282862319</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M11" t="n">
-        <v>1185.945282862319</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>1185.945282862319</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127231</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085826</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.703032772709</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2038.847578183742</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>1619.705114763053</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1619.705114763053</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723525</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>82.19007281723525</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>762.9235928876126</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>762.9235928876126</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>762.9235928876126</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N12" t="n">
-        <v>762.9235928876126</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O12" t="n">
-        <v>762.9235928876126</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.960529798701</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C13" t="n">
-        <v>926.3988182819263</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D13" t="n">
-        <v>760.520825483449</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E13" t="n">
-        <v>760.520825483449</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>583.8137714452052</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>418.2224964710329</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>278.3203221614074</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>189.6603729360827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>276.2400581007726</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>550.9985126719082</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>969.2083944398693</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1428.692261620782</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1870.951064778427</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2290.620314004208</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2638.12720797455</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2806.319982838882</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2784.902161544254</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2625.660792842251</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.781346420706</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2101.348345673811</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>2035.616978283876</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W13" t="n">
-        <v>1763.590573870168</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X13" t="n">
-        <v>1518.19881920358</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y13" t="n">
-        <v>1290.779148517689</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>565.0521934508358</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>565.0521934508358</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>565.0521934508358</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>131.2774486091309</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>56.54318902963765</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.54318902963765</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096956</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>491.3810871096956</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L14" t="n">
-        <v>491.3810871096956</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M14" t="n">
-        <v>491.3810871096956</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5387406219839</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127231</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085826</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>2586.252755711921</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>2586.252755711921</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2223.635805645747</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>1818.780351056781</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>1399.63788763609</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>991.3517639357436</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723525</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.454444409171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.454444409171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.454444409171</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1180.058584322639</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>1007.496872805864</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>841.6188800073871</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>671.8608762581243</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>495.1538222198805</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>329.5625472457082</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>189.6603729360827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>189.6603729360827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>276.2400581007726</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>550.9985126719082</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>969.2083944398693</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1428.692261620782</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1870.951064778427</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2290.620314004208</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2638.12720797455</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2806.319982838882</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2806.319982838882</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2647.078614136879</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2401.199167715334</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2401.199167715334</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>2114.243659585765</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.217255172056</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.296873727518</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1371.877203041627</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5494,19 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5595,22 +5597,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M18" t="n">
-        <v>531.6733301892817</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882662</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365887</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674093</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>275.1900980402672</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>109.5988230660949</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497406</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367837</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954128</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.557290287541</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601649</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5783,7 +5785,7 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882658</v>
       </c>
       <c r="C22" t="n">
-        <v>743.3902861023174</v>
+        <v>1008.757289365883</v>
       </c>
       <c r="D22" t="n">
-        <v>577.5122933038401</v>
+        <v>842.8792965674054</v>
       </c>
       <c r="E22" t="n">
-        <v>407.7542895545774</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.363958244297</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497402</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367833</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954124</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.557290287537</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601645</v>
       </c>
     </row>
     <row r="23">
@@ -5990,16 +5992,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>620.5788526445006</v>
       </c>
       <c r="F25" t="n">
         <v>496.4142387799021</v>
@@ -6175,22 +6177,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6227,16 +6229,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1004.611946844417</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C28" t="n">
-        <v>832.0502353276421</v>
+        <v>904.7306530065579</v>
       </c>
       <c r="D28" t="n">
-        <v>666.1722425291648</v>
+        <v>738.8526602080806</v>
       </c>
       <c r="E28" t="n">
-        <v>496.4142387799021</v>
+        <v>569.0946564588178</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>392.387602420574</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>226.7963274464017</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6418,16 +6420,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X28" t="n">
-        <v>1423.850236249296</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y28" t="n">
-        <v>1196.430565563404</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="29">
@@ -6470,13 +6472,13 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>3137.402081918264</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O29" t="n">
-        <v>4117.581748488571</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
         <v>4566.543227580386</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>3800.424250186843</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>3800.424250186843</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>3800.424250186843</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>839.0206718702449</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>666.4589603534698</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>500.5809675549925</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>330.8229638057298</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S31" t="n">
-        <v>2586.945075653429</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2341.065629231884</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2062.632628484989</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1775.67712035542</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1503.650715941711</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1258.258961275124</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1030.839290589232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1141.396843814754</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>968.8351322979789</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>802.9571394995016</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>633.1991357502388</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>456.4920817119951</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>290.9008067378227</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>150.9986324281973</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="35">
@@ -6923,37 +6925,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>934.6074576929152</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.16863798718</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -7014,28 +7016,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>527.5309029958357</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>350.823848957592</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>185.2325739834196</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2683.3639582443</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,31 +7174,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1363.953402140615</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>925.8109293240379</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>489.9011444984825</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>56.12639965677765</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677765</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677765</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096956</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5387406219839</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5387406219839</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5387406219839</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5387406219839</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.667132127231</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085826</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838882</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2617.681559746558</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2198.539096325869</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1790.252972625522</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723525</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>971.6220864656536</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>799.0603749488786</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>633.1823821504013</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>463.4243784011385</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>286.7173243628947</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1163.440705184641</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1163.440705184641</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>584.7949670178641</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>584.7949670178641</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>584.7949670178641</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>345.6733435864214</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>345.6733435864214</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6733435864214</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677765</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677765</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5387406219839</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5387406219839</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5387406219839</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.667132127231</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085826</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022719</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895758</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.378579212775</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2243.378579212775</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>1838.523124623808</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>1419.380661203119</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1011.094537502772</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723525</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1135.184560268659</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>962.6228487518839</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2246.247373141401</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.841008753834</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.814604340125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.422849673538</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.003178987646</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>316.389926674475</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,25 +8221,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>640.5448952297621</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>434.0712383807912</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8380,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>317.1830304671604</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8453,25 +8455,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
+      <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932207</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>301.5463146682409</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="N14" t="n">
-        <v>212.2804580932207</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9650,7 +9652,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,7 +9889,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,16 +10120,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>575.2670899541636</v>
       </c>
       <c r="P29" t="n">
-        <v>453.4964435270858</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10185,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>840.7541590122582</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10662,31 +10664,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10908,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>407.4230472303479</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>212.2804580932207</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>651.9316575406125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>134.0173647732286</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117739</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>219.0118993322382</v>
+        <v>40.15930123557317</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>349.6018383111859</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2.446659489829102</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473437</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>124.3589898130758</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.423368029022</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>52.01701577190889</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>212.1323395461473</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S31" t="n">
-        <v>26.99333424003467</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>39.52293549722796</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>56.36113619101562</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>216.2362286424012</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>214.0548611816762</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>161.9268490649753</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>192.7065901961595</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>111.4236523045825</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>491159.0349082522</v>
+        <v>488664.7344967188</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>491159.0349082522</v>
+        <v>490778.454900598</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>322737.6795008428</v>
+        <v>487610.6989033271</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>322737.6795008428</v>
+        <v>487610.6989033271</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>487610.6989033271</v>
+        <v>487610.6989033272</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>487610.698903327</v>
+        <v>487610.6989033271</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>487610.6989033271</v>
+        <v>487610.6989033272</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>322737.6795008429</v>
+        <v>487610.698903327</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>322737.6795008429</v>
+        <v>487610.6989033271</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>455725.2219068473</v>
       </c>
       <c r="C2" t="n">
-        <v>455725.2219068474</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="D2" t="n">
-        <v>455725.2219068474</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
-        <v>296407.1037349762</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="F2" t="n">
-        <v>296407.1037349763</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="G2" t="n">
+        <v>447828.9465167494</v>
+      </c>
+      <c r="H2" t="n">
+        <v>447828.9465167494</v>
+      </c>
+      <c r="I2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="J2" t="n">
         <v>447828.9465167496</v>
-      </c>
-      <c r="H2" t="n">
-        <v>447828.9465167495</v>
-      </c>
-      <c r="I2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="J2" t="n">
-        <v>447828.9465167495</v>
       </c>
       <c r="K2" t="n">
         <v>447828.9465167496</v>
       </c>
       <c r="L2" t="n">
+        <v>447828.9465167494</v>
+      </c>
+      <c r="M2" t="n">
+        <v>447828.9465167494</v>
+      </c>
+      <c r="N2" t="n">
+        <v>447828.9465167493</v>
+      </c>
+      <c r="O2" t="n">
+        <v>447828.9465167494</v>
+      </c>
+      <c r="P2" t="n">
         <v>447828.9465167496</v>
-      </c>
-      <c r="M2" t="n">
-        <v>447828.9465167495</v>
-      </c>
-      <c r="N2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="O2" t="n">
-        <v>296407.1037349766</v>
-      </c>
-      <c r="P2" t="n">
-        <v>296407.1037349766</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998292</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.9966004562</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877239</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622436</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340822</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122130.8532251352</v>
+        <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>122130.8532251352</v>
+        <v>130243.4307963244</v>
       </c>
       <c r="D4" t="n">
         <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>9428.555608343471</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>9428.555608343471</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049258</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049259</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9428.555608343537</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>9428.555608343537</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35682.14553590953</v>
+        <v>78808.89324480406</v>
       </c>
       <c r="C6" t="n">
-        <v>259381.8441199545</v>
+        <v>186937.8094075044</v>
       </c>
       <c r="D6" t="n">
-        <v>259381.8441199544</v>
+        <v>247854.2485699714</v>
       </c>
       <c r="E6" t="n">
-        <v>234151.4877870256</v>
+        <v>173510.3931194145</v>
       </c>
       <c r="F6" t="n">
-        <v>244322.4843874818</v>
+        <v>355865.5023404642</v>
       </c>
       <c r="G6" t="n">
-        <v>197806.0253943552</v>
+        <v>355865.5023404642</v>
       </c>
       <c r="H6" t="n">
-        <v>355865.5023404644</v>
+        <v>355865.5023404643</v>
       </c>
       <c r="I6" t="n">
         <v>355865.5023404643</v>
       </c>
       <c r="J6" t="n">
-        <v>181214.1536227583</v>
+        <v>244851.0369954742</v>
       </c>
       <c r="K6" t="n">
-        <v>355865.5023404644</v>
+        <v>302819.6477016921</v>
       </c>
       <c r="L6" t="n">
-        <v>355865.5023404644</v>
+        <v>346473.2006138419</v>
       </c>
       <c r="M6" t="n">
-        <v>347376.4206371235</v>
+        <v>203665.3314024767</v>
       </c>
       <c r="N6" t="n">
         <v>355865.5023404642</v>
       </c>
       <c r="O6" t="n">
-        <v>244322.4843874821</v>
+        <v>355865.5023404643</v>
       </c>
       <c r="P6" t="n">
-        <v>244322.4843874821</v>
+        <v>355865.5023404644</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186362</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750247</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186362</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186362</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750247</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>256.4937245134201</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>157.6913640430168</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>53.21652701372034</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>144.1344859240872</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>397.4828964454972</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>256.4937245134203</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>57.10387781217734</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>122.9308428424046</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>253.8775775763891</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>44.33888453491807</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -28020,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>22.23190701434939</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>33.23652828778035</v>
       </c>
     </row>
     <row r="11">
@@ -28093,19 +28095,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28141,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28153,10 +28155,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28254,7 +28256,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.80244154596408e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28324,22 +28326,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,16 +28383,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.146464787727863e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.892427885772319e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28728,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-5.980973060365933e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28855,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-7.955339370490157e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>316.389926674475</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>640.5448952297621</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>434.0712383807912</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>317.1830304671604</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35109,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,25 +35175,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
+      <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932207</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>301.5463146682409</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="N14" t="n">
-        <v>212.2804580932207</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,10 +36369,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,10 +36606,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,16 +36840,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>575.2670899541636</v>
       </c>
       <c r="P29" t="n">
-        <v>453.4964435270858</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>840.7541590122582</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>407.4230472303479</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>212.2804580932207</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>651.9316575406125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38178,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2213248.730551649</v>
+        <v>2212723.548182617</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.072591686</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>351.9340411887547</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -673,13 +673,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>98.93871561313649</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -822,16 +822,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>222.4321437257054</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>48.06701940914102</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>198.8614153874893</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>17.46814234098522</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1062,16 +1062,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>81.39927475435188</v>
+        <v>114.3486586083467</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1113,7 +1113,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>29.74512849779573</v>
       </c>
       <c r="T8" t="n">
-        <v>173.5276703207737</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1302,13 +1302,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.9089456912525</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772993</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1536,13 +1536,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>41.48733421943322</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>243.9266518127007</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>29.10461178738937</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2010,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>7.264602967362117</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2140,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2247,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117669</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>136.0564930766996</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>13.99728392830732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2478,25 +2478,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>122.9229677259524</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>35.5167825707944</v>
+        <v>56.72042565247619</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2952,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.25041423584345</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3432,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>82.14201637551361</v>
+        <v>7.264602967362117</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>26.70160847752048</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800581</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112162</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225719</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3.139541480022616</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772993</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4036,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4194,10 +4194,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>123.2901323038659</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>187.5234134555184</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.0234284442651</v>
+        <v>554.8743158913576</v>
       </c>
       <c r="C2" t="n">
-        <v>408.9213596680925</v>
+        <v>520.7722471151849</v>
       </c>
       <c r="D2" t="n">
-        <v>377.0519788829411</v>
+        <v>488.9028663300335</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>459.1685255287327</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K2" t="n">
-        <v>687.9235674375537</v>
-      </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1293.526232558367</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1293.526232558367</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.711182009805</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.609122629519</v>
+        <v>914.6089660449918</v>
       </c>
       <c r="Y2" t="n">
-        <v>869.3229989291729</v>
+        <v>910.3632463850493</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.1653293437081</v>
+        <v>803.3416511546014</v>
       </c>
       <c r="C4" t="n">
-        <v>122.603617826933</v>
+        <v>630.7799396378264</v>
       </c>
       <c r="D4" t="n">
-        <v>122.603617826933</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
         <v>122.603617826933</v>
@@ -4494,10 +4494,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
         <v>1277.514180854636</v>
@@ -4518,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1045.965860605973</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>759.0103524764037</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W4" t="n">
-        <v>486.9839480626952</v>
+        <v>1467.971695226068</v>
       </c>
       <c r="X4" t="n">
-        <v>486.9839480626952</v>
+        <v>1222.57994055948</v>
       </c>
       <c r="Y4" t="n">
-        <v>486.9839480626952</v>
+        <v>995.1602698735885</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2072.614400557222</v>
+        <v>745.5581716674729</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.471927740645</v>
+        <v>711.4561028913004</v>
       </c>
       <c r="D5" t="n">
-        <v>1602.602546955494</v>
+        <v>275.5463180657449</v>
       </c>
       <c r="E5" t="n">
-        <v>1168.827802113789</v>
+        <v>74.67620151272533</v>
       </c>
       <c r="F5" t="n">
-        <v>740.960372522997</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="G5" t="n">
-        <v>339.5625411462608</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947705</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947705</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>674.5331706342555</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="M5" t="n">
-        <v>1104.263696631239</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="N5" t="n">
-        <v>1728.364480676017</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="O5" t="n">
-        <v>2352.465264720795</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>2352.465264720795</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720795</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473852</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473852</v>
+        <v>2217.900228530732</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473852</v>
+        <v>1958.677925847749</v>
       </c>
       <c r="V5" t="n">
-        <v>2521.619329473852</v>
+        <v>1596.060975781575</v>
       </c>
       <c r="W5" t="n">
-        <v>2116.763874884886</v>
+        <v>1191.205521192609</v>
       </c>
       <c r="X5" t="n">
-        <v>2099.119286661668</v>
+        <v>772.0630577719193</v>
       </c>
       <c r="Y5" t="n">
-        <v>2094.873567001726</v>
+        <v>767.8173381119767</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1364.551312986336</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>1258.094851822979</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>1163.004562969532</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>1068.884148296486</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>985.5003099126473</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>900.1152201788311</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>858.3795679950435</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>884.443241155501</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="J6" t="n">
-        <v>1209.001566121713</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>1239.606828702659</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1239.606828702659</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1239.606828702659</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1239.606828702659</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1239.606828702659</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.707612747437</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>2404.446551379513</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>2521.619329473852</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>2458.163891922236</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>2327.985248252837</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>2151.648701252805</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1952.531183314805</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>1767.208429047999</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>1612.340993286879</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>1485.8552140661</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1071.809862542593</v>
+        <v>593.0357356940408</v>
       </c>
       <c r="C7" t="n">
-        <v>899.2481510258184</v>
+        <v>420.4740241772657</v>
       </c>
       <c r="D7" t="n">
-        <v>733.3701582273411</v>
+        <v>254.5960313787884</v>
       </c>
       <c r="E7" t="n">
-        <v>563.6121544780783</v>
+        <v>254.5960313787884</v>
       </c>
       <c r="F7" t="n">
-        <v>386.9051004398345</v>
+        <v>254.5960313787884</v>
       </c>
       <c r="G7" t="n">
-        <v>221.3138254656622</v>
+        <v>254.5960313787884</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255752</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413397</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639178</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179224</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477221</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055676</v>
+        <v>2095.08069305568</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308781</v>
+        <v>1816.647692308785</v>
       </c>
       <c r="V7" t="n">
-        <v>1816.647692308781</v>
+        <v>1529.692184179216</v>
       </c>
       <c r="W7" t="n">
-        <v>1544.621287895073</v>
+        <v>1257.665779765507</v>
       </c>
       <c r="X7" t="n">
-        <v>1299.229533228485</v>
+        <v>1012.27402509892</v>
       </c>
       <c r="Y7" t="n">
-        <v>1071.809862542593</v>
+        <v>784.854354413028</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.095648603258</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>1350.953175786681</v>
+        <v>947.329561119137</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194208</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2640.01524209022</v>
       </c>
       <c r="T8" t="n">
-        <v>2494.780351359939</v>
+        <v>2640.01524209022</v>
       </c>
       <c r="U8" t="n">
-        <v>2235.558048676956</v>
+        <v>2640.01524209022</v>
       </c>
       <c r="V8" t="n">
-        <v>2235.558048676956</v>
+        <v>2640.01524209022</v>
       </c>
       <c r="W8" t="n">
-        <v>2234.742998128393</v>
+        <v>2639.200191541657</v>
       </c>
       <c r="X8" t="n">
-        <v>2219.640938748108</v>
+        <v>2220.057728120968</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.354815047762</v>
+        <v>1811.771604420621</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>966.8681021663376</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>794.3063906495626</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>628.4283978510853</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>458.6703941018225</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -5007,7 +5007,7 @@
         <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>966.8681021663376</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
         <v>1221.073045167952</v>
@@ -5032,7 +5032,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
         <v>102.6776296436396</v>
@@ -5041,52 +5041,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5099,16 +5099,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
         <v>143.9964924545671</v>
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1011.560997133398</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C13" t="n">
-        <v>838.9992856166232</v>
+        <v>843.1660143917135</v>
       </c>
       <c r="D13" t="n">
-        <v>673.1212928181459</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5226,25 +5226,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2473.041003752034</v>
+        <v>2517.772683270128</v>
       </c>
       <c r="U13" t="n">
-        <v>2194.608003005139</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V13" t="n">
-        <v>1948.217445618573</v>
+        <v>1952.384174393663</v>
       </c>
       <c r="W13" t="n">
-        <v>1676.191041204865</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X13" t="n">
-        <v>1430.799286538277</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y13" t="n">
-        <v>1203.379615852385</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="14">
@@ -5266,43 +5266,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
         <v>5029.390139722817</v>
@@ -5317,13 +5317,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5515,52 +5515,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>451.897152078511</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>275.1900980402672</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>109.5988230660949</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5703,22 +5703,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5752,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882658</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365883</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674054</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>405.2829163325273</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>239.691641358355</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.363958244297</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497402</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367833</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954124</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.557290287537</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601645</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>790.3368563937634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>790.3368563937634</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>620.5788526445006</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1077.292364523333</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C28" t="n">
-        <v>904.7306530065579</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D28" t="n">
-        <v>738.8526602080806</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E28" t="n">
-        <v>569.0946564588178</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F28" t="n">
-        <v>392.387602420574</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G28" t="n">
-        <v>226.7963274464017</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W28" t="n">
-        <v>1741.922408594799</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X28" t="n">
-        <v>1496.530653928212</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y28" t="n">
-        <v>1269.11098324232</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="29">
@@ -6466,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>3168.718933692368</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
         <v>780.1951658309357</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6703,16 +6703,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.396843814754</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>968.8351322979789</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>802.9571394995016</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>633.1991357502388</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>456.4920817119951</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>290.9008067378227</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>150.9986324281973</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>934.6074576929152</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2009.667423945775</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2009.667423945775</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>3135.398407382222</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4115.578073952528</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1035.728611060351</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>863.1668995435758</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>697.2889067450985</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>527.5309029958357</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F37" t="n">
-        <v>350.823848957592</v>
+        <v>275.1900980402672</v>
       </c>
       <c r="G37" t="n">
-        <v>185.2325739834196</v>
+        <v>109.5988230660949</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7137,10 +7137,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1454.96690046523</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1227.547229779338</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
@@ -7162,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7174,49 +7174,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136696</v>
@@ -7232,16 +7232,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7253,28 +7253,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1362.151784991544</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1362.151784991544</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1427.995578770765</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1200.575908084873</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7411,52 +7411,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7469,16 +7469,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
         <v>143.9964924545671</v>
@@ -7493,19 +7493,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.9960463903949</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C43" t="n">
-        <v>798.4343348736198</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D43" t="n">
-        <v>632.5563420751425</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E43" t="n">
-        <v>462.7983383258798</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F43" t="n">
-        <v>286.091284287636</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G43" t="n">
-        <v>120.5000093134636</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7657,40 +7657,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136696</v>
@@ -7706,16 +7706,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
@@ -7730,19 +7730,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8142,13 +8142,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684631</v>
+        <v>72.805895586112</v>
       </c>
       <c r="M5" t="n">
-        <v>434.0712383807912</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684631</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684631</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>30.91440664741958</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684631</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671604</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238402</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8531,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>531.8762684426497</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>753.9218057523913</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10123,16 +10123,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>575.2670899541636</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10363,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>840.7541590122582</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10603,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
-        <v>407.4230472303479</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11068,10 +11068,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N41" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11305,7 +11305,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>201.9333177378961</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>40.15930123557317</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.2385495991671</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.446659489829642</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.423368029022</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>52.01701577190889</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>102.9863699957348</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>39.52293549722796</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>56.36113619101562</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>216.2362286424012</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>84.6338082530488</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>160.7958207444079</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>487610.6989033272</v>
+        <v>487610.6989033271</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>487610.6989033272</v>
+        <v>487610.6989033271</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>487610.698903327</v>
+        <v>487610.6989033271</v>
       </c>
     </row>
     <row r="16">
@@ -26325,37 +26325,37 @@
         <v>447828.9465167494</v>
       </c>
       <c r="F2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="G2" t="n">
+        <v>447828.9465167493</v>
+      </c>
+      <c r="H2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="I2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="J2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="K2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="L2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="M2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="N2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="O2" t="n">
+        <v>447828.9465167495</v>
+      </c>
+      <c r="P2" t="n">
         <v>447828.9465167494</v>
-      </c>
-      <c r="G2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="H2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="I2" t="n">
-        <v>447828.9465167495</v>
-      </c>
-      <c r="J2" t="n">
-        <v>447828.9465167496</v>
-      </c>
-      <c r="K2" t="n">
-        <v>447828.9465167496</v>
-      </c>
-      <c r="L2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="M2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="N2" t="n">
-        <v>447828.9465167493</v>
-      </c>
-      <c r="O2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="P2" t="n">
-        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.767895016</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998292</v>
+        <v>11527.59554998259</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877239</v>
+        <v>53045.85463877266</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622436</v>
+        <v>9392.30172662217</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
@@ -26420,7 +26420,7 @@
         <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>130243.4307963244</v>
+        <v>130243.4307963242</v>
       </c>
       <c r="D4" t="n">
         <v>122130.8532251352</v>
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800256</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>78808.89324480406</v>
       </c>
       <c r="C6" t="n">
-        <v>186937.8094075044</v>
+        <v>186937.8094075041</v>
       </c>
       <c r="D6" t="n">
-        <v>247854.2485699714</v>
+        <v>247854.2485699718</v>
       </c>
       <c r="E6" t="n">
-        <v>173510.3931194145</v>
+        <v>173487.168780032</v>
       </c>
       <c r="F6" t="n">
-        <v>355865.5023404642</v>
+        <v>355842.2780010815</v>
       </c>
       <c r="G6" t="n">
-        <v>355865.5023404642</v>
+        <v>355842.2780010815</v>
       </c>
       <c r="H6" t="n">
-        <v>355865.5023404643</v>
+        <v>355842.2780010817</v>
       </c>
       <c r="I6" t="n">
-        <v>355865.5023404643</v>
+        <v>355842.2780010817</v>
       </c>
       <c r="J6" t="n">
-        <v>244851.0369954742</v>
+        <v>244827.8126560915</v>
       </c>
       <c r="K6" t="n">
-        <v>302819.6477016921</v>
+        <v>302796.423362309</v>
       </c>
       <c r="L6" t="n">
-        <v>346473.2006138419</v>
+        <v>346449.9762744596</v>
       </c>
       <c r="M6" t="n">
-        <v>203665.3314024767</v>
+        <v>203642.1070630941</v>
       </c>
       <c r="N6" t="n">
-        <v>355865.5023404642</v>
+        <v>355842.2780010817</v>
       </c>
       <c r="O6" t="n">
-        <v>355865.5023404643</v>
+        <v>355842.2780010817</v>
       </c>
       <c r="P6" t="n">
-        <v>355865.5023404644</v>
+        <v>355842.2780010816</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,16 +27014,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939388</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939388</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,16 +27260,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483587</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939388</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>70.10253359130394</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>157.6913640430168</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27542,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>53.21652701372034</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>221.2391209604304</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>230.5755820057984</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>397.4828964454972</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>57.10387781217734</v>
+        <v>24.15449395818248</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>53.07022658020563</v>
       </c>
       <c r="T8" t="n">
-        <v>44.33888453491807</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27918,7 +27918,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.23652828778035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684631</v>
+        <v>72.805895586112</v>
       </c>
       <c r="M5" t="n">
-        <v>434.0712383807912</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684631</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684631</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>30.91440664741958</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684631</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671604</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238402</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35251,10 +35251,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>531.8762684426497</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638367</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>753.9218057523913</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,16 +36843,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>575.2670899541636</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,10 +37080,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>840.7541590122582</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37323,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
-        <v>407.4230472303479</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N41" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38025,7 +38025,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
